--- a/docs/Word_list.xlsx
+++ b/docs/Word_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="219">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -677,477 +677,6 @@
   </si>
   <si>
     <t xml:space="preserve">debida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">advertise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hacer propaganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">advice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consejo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aconsejar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">costear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">afraid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">con miedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">objetivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">apuntar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">angle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">angulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">annoy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">molestar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aprobacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aprobar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">argue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discutir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arrangemnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arreglo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flecha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ceniza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">attend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asistir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">estar presente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">avoid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">evitar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">awkward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inapropiado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extrano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bolsa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descubierto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barrel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barril</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rayo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">viga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">behave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">comportarse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">behavior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conducta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">doblar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pedazo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">blade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hojilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">block</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bloque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bloquear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hervir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">audaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hueso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">border</t>
-  </si>
-  <si>
-    <t xml:space="preserve">borde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">borrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pedir prestado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bottle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">botella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bottom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fondo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limitar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">frontera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ladrillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brush</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cepillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">busy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocupado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buttom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tapa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">card</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tarjeta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ficha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">caution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">precaucion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cadena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">encadenar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cheap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limpio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limpiar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coarse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rugoso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">burdo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">collect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recolectar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quejarse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">confidence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">confianza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">confident</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seguro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conscious</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conciente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fresco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">esquina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grieta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agrietar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chocar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crush</t>
-  </si>
-  <si>
-    <t xml:space="preserve">triturar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">danar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">damp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">humedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atreverse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decaer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decrease</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disminuir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retraso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">retrasar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deliver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enviar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delivery</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entrega</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deserve</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merecer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dirt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">suciedad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dirty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sucio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discuss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">disturb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">punto</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +796,7 @@
   <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D167" activeCellId="0" sqref="D167"/>
+      <selection pane="topLeft" activeCell="W97" activeCellId="0" sqref="W97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2736,1067 +2265,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="E100" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="E101" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="E102" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="E103" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>230</v>
-      </c>
-      <c r="E104" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="E105" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>234</v>
-      </c>
-      <c r="E106" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="E107" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>238</v>
-      </c>
-      <c r="E108" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="E109" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>241</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>242</v>
-      </c>
-      <c r="E110" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="E111" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="C112" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="E112" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="C113" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="E113" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" s="0" t="s">
-        <v>249</v>
-      </c>
-      <c r="C114" s="0" t="s">
-        <v>250</v>
-      </c>
-      <c r="E114" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="C115" s="0" t="s">
-        <v>252</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="E115" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" s="0" t="s">
-        <v>254</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="E116" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>256</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="E117" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="C118" s="0" t="s">
-        <v>260</v>
-      </c>
-      <c r="E118" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" s="0" t="s">
-        <v>261</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="E119" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="C120" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="E120" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" s="0" t="s">
-        <v>265</v>
-      </c>
-      <c r="C121" s="0" t="s">
-        <v>266</v>
-      </c>
-      <c r="D121" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="E121" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" s="0" t="s">
-        <v>268</v>
-      </c>
-      <c r="C122" s="0" t="s">
-        <v>269</v>
-      </c>
-      <c r="E122" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" s="0" t="s">
-        <v>270</v>
-      </c>
-      <c r="C123" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="E123" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="C124" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="E124" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="E125" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" s="0" t="s">
-        <v>276</v>
-      </c>
-      <c r="C126" s="0" t="s">
-        <v>277</v>
-      </c>
-      <c r="E126" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" s="0" t="s">
-        <v>278</v>
-      </c>
-      <c r="C127" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="E127" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" s="0" t="s">
-        <v>280</v>
-      </c>
-      <c r="C128" s="0" t="s">
-        <v>281</v>
-      </c>
-      <c r="D128" s="0" t="s">
-        <v>282</v>
-      </c>
-      <c r="E128" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>284</v>
-      </c>
-      <c r="E129" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" s="0" t="s">
-        <v>285</v>
-      </c>
-      <c r="C130" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="E130" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="C131" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="E131" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C132" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="E132" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="C133" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="E133" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="C134" s="0" t="s">
-        <v>294</v>
-      </c>
-      <c r="E134" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="C135" s="0" t="s">
-        <v>296</v>
-      </c>
-      <c r="E135" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="C136" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="E136" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="C137" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="E137" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="C138" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="E138" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="C139" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="E139" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="C140" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="E140" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="C141" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="E141" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="C142" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="E142" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="C143" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="D143" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="E143" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="C144" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="E144" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="C145" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="D145" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="E145" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="C146" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="E146" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="C147" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="D147" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="E147" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="C148" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="D148" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="E148" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="C149" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="E149" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="C150" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="E150" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="C151" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="E151" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="C152" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="E152" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="C153" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="E153" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="C154" s="0" t="s">
-        <v>338</v>
-      </c>
-      <c r="E154" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="C155" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="E155" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="C156" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="D156" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="E156" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="C157" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="E157" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>346</v>
-      </c>
-      <c r="C158" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="E158" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="C159" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="D159" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="E159" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="C160" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="E160" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="C161" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="E161" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="C162" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="E162" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="C163" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="E163" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="C164" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="D164" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="E164" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="C165" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="E165" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="C166" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="E166" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="C167" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E167" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="C168" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="E168" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="C169" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="E169" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="C170" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="E170" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="C171" s="0" t="s">
-        <v>236</v>
-      </c>
-      <c r="E171" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="C172" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="E172" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/docs/Word_list.xlsx
+++ b/docs/Word_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="376">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -677,6 +677,477 @@
   </si>
   <si>
     <t xml:space="preserve">debida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advertise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hacer propaganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">advice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consejo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aconsejar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">costear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afraid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">con miedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">objetivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apuntar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">angulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">molestar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aprobacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aprobar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">argue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discutir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrangemnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arreglo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ceniza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">attend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asistir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">estar presente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evitar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">awkward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inapropiado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extrano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bolsa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">descubierto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barril</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">viga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">behave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comportarse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">behavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conducta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doblar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedazo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hojilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bloque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bloquear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hervir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">audaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hueso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">border</t>
+  </si>
+  <si>
+    <t xml:space="preserve">borde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">borrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedir prestado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bottle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fondo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limitar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frontera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ladrillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cepillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">busy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocupado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buttom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tapa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tarjeta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ficha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precaucion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cadena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encadenar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cheap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limpio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limpiar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coarse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rugoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">burdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recolectar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quejarse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confidence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confianza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">confident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">seguro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conscious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conciente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esquina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grieta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agrietar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chocar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crush</t>
+  </si>
+  <si>
+    <t xml:space="preserve">triturar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">danar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">damp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">humedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atreverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decaer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disminuir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retraso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">retrasar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deliver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enviar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entrega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merecer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suciedad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dirty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sucio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discuss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disturb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">punto</t>
   </si>
 </sst>
 </file>
@@ -796,7 +1267,7 @@
   <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W97" activeCellId="0" sqref="W97"/>
+      <selection pane="topLeft" activeCell="D167" activeCellId="0" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2265,79 +2736,1067 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="D143" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="D145" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="D147" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D148" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>329</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>335</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" s="0" t="s">
+        <v>339</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="D156" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D159" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" s="0" t="s">
+        <v>353</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="D164" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" s="0" t="s">
+        <v>372</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
